--- a/docs/ReactUI.xlsx
+++ b/docs/ReactUI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86159\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\self\my\frameworker\ctmobile\CTSJ-UI\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7A07BC-D505-4491-A750-15674136B923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24EC24F-B7A4-4DA7-A880-935407D7CA87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="3915" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component" sheetId="1" r:id="rId1"/>
@@ -823,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -840,6 +840,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:C79"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1219,7 +1222,7 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1243,7 +1246,7 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1327,7 +1330,7 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1339,7 +1342,7 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1363,7 +1366,7 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1375,7 +1378,7 @@
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1387,7 +1390,7 @@
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1413,7 +1416,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1437,10 +1440,10 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2089,7 +2092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4296C31A-C47C-462E-89E1-A3F76CAF7517}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -2099,7 +2102,7 @@
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>

--- a/docs/ReactUI.xlsx
+++ b/docs/ReactUI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\self\my\frameworker\ctmobile\CTSJ-UI\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24EC24F-B7A4-4DA7-A880-935407D7CA87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6803B5FB-04F7-42C3-A063-5D3D00A2A12C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="3915" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component" sheetId="1" r:id="rId1"/>
@@ -691,10 +691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Tinymce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>边框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -748,6 +744,10 @@
   </si>
   <si>
     <t>正常 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tinymce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1464,7 +1464,7 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1993,7 +1993,7 @@
     </row>
     <row r="72" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>165</v>
@@ -2114,87 +2114,87 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">

--- a/docs/ReactUI.xlsx
+++ b/docs/ReactUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\self\my\frameworker\ctmobile\CTSJ-UI\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6803B5FB-04F7-42C3-A063-5D3D00A2A12C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B22088-AD9F-4BC0-98C6-27EDA0262824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -803,12 +803,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -823,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -842,6 +848,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1126,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1150,7 +1159,7 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1452,7 +1461,7 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="10" t="s">
         <v>103</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1488,7 +1497,7 @@
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1500,7 +1509,7 @@
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1956,7 +1965,7 @@
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="10" t="s">
         <v>154</v>
       </c>
       <c r="B69" s="3" t="s">

--- a/docs/ReactUI.xlsx
+++ b/docs/ReactUI.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\self\my\frameworker\ctmobile\CTSJ-UI\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B22088-AD9F-4BC0-98C6-27EDA0262824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB496F35-C6E6-412A-BDA4-01D83EFF22AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component" sheetId="1" r:id="rId1"/>
-    <sheet name="设计" sheetId="2" r:id="rId2"/>
+    <sheet name="关联" sheetId="3" r:id="rId2"/>
+    <sheet name="设计" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="260">
   <si>
     <t>组件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,9 +214,6 @@
   <si>
     <t>导航</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paagination</t>
   </si>
   <si>
     <t>Step</t>
@@ -749,6 +747,277 @@
   <si>
     <t>Tinymce</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animate</t>
+  </si>
+  <si>
+    <t>Dropdown  </t>
+  </si>
+  <si>
+    <t>依赖组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overlay | Popover</t>
+  </si>
+  <si>
+    <t>ToolTip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>Badge</t>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>Tabs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cascader</t>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collapse</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Spin</t>
+  </si>
+  <si>
+    <t>Spin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Tooltip</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Carousel</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Modal</t>
+  </si>
+  <si>
+    <t>Drawer</t>
+  </si>
+  <si>
+    <t>Alert</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Divider</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Descriptions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Typography</t>
+  </si>
+  <si>
+    <t>TextArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breadcrumb</t>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paagination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>DatePicker</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>InputNumber</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Slider</t>
+  </si>
+  <si>
+    <t>tooltip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>TimePicker</t>
+  </si>
+  <si>
+    <t>datepicker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreeSelect</t>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>PageHeader</t>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breadcrumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mentions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>Statistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Popconfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anchor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackTop</t>
+  </si>
+  <si>
+    <t>Divder</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1166,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1190,28 +1459,28 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -1220,73 +1489,73 @@
     </row>
     <row r="7" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -1298,7 +1567,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -1310,31 +1579,31 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -1346,7 +1615,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -1358,7 +1627,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -1370,7 +1639,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -1382,31 +1651,31 @@
         <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -1418,7 +1687,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1426,25 +1695,25 @@
     </row>
     <row r="24" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25" s="2"/>
     </row>
@@ -1456,19 +1725,19 @@
         <v>29</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -1480,7 +1749,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D28" s="2"/>
     </row>
@@ -1504,7 +1773,7 @@
         <v>36</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -1516,7 +1785,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -1534,13 +1803,13 @@
     </row>
     <row r="33" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -1558,25 +1827,25 @@
     </row>
     <row r="35" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="C36" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D36" s="2"/>
     </row>
@@ -1594,46 +1863,46 @@
     </row>
     <row r="38" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="C39" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="C40" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>5</v>
@@ -1642,106 +1911,106 @@
     </row>
     <row r="42" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="C42" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="C43" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C44" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="C45" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C47" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="C49" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>5</v>
@@ -1750,344 +2019,344 @@
     </row>
     <row r="51" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C51" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="C52" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="C53" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="C54" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C55" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="C56" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="C58" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C59" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="C60" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="C61" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C63" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C64" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C65" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C66" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C67" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C68" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="C69" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="C71" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C74" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C75" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="C76" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C77" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C78" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C79" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2098,6 +2367,533 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E33E6D-704F-4594-8934-B3F3674F0F08}">
+  <dimension ref="A1:B86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:A86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>236</v>
+      </c>
+      <c r="B54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4296C31A-C47C-462E-89E1-A3F76CAF7517}">
   <dimension ref="A1:B40"/>
   <sheetViews>
@@ -2113,97 +2909,97 @@
   <sheetData>
     <row r="1" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
